--- a/Barabanca/src/test/resources/supertrend-parsed-results/supertrendParsedResults_v0.xlsx
+++ b/Barabanca/src/test/resources/supertrend-parsed-results/supertrendParsedResults_v0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Vizerium\java_workspace\git\vizerium\Barabanca\src\test\resources\supertrend-parsed-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA65F5AF-6368-4B5C-8765-8299EDDDAC47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E37960-20F2-4B54-835C-F1E762572143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="8496" yWindow="3156" windowWidth="11928" windowHeight="7596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supertrendParsedResults_v0" sheetId="1" r:id="rId1"/>
@@ -1519,7 +1519,7 @@
   <dimension ref="A1:W145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3322,7 +3322,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>108</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>108</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>108</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>108</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>108</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>108</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>108</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>108</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>108</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>108</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>108</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>108</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>108</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>108</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>108</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>108</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="122" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>177</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="123" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>177</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="124" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>177</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="125" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>177</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="126" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>177</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="127" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>177</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>177</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>177</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>177</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>177</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>177</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>177</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>177</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>177</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>177</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>177</v>
       </c>
@@ -11851,7 +11851,7 @@
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="1hour"/>
+        <filter val="15min"/>
       </filters>
     </filterColumn>
   </autoFilter>
